--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.396148981586282</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H2">
-        <v>0.396148981586282</v>
+        <v>7.725334</v>
       </c>
       <c r="I2">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J2">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.4575390136119</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N2">
-        <v>48.4575390136119</v>
+        <v>0.117908</v>
       </c>
       <c r="O2">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P2">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q2">
-        <v>19.19640473041988</v>
+        <v>0.1012087423635556</v>
       </c>
       <c r="R2">
-        <v>19.19640473041988</v>
+        <v>0.910878681272</v>
       </c>
       <c r="S2">
-        <v>0.0002281854785791775</v>
+        <v>8.299330806120452E-07</v>
       </c>
       <c r="T2">
-        <v>0.0002281854785791775</v>
+        <v>8.299330806120454E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.396148981586282</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H3">
-        <v>0.396148981586282</v>
+        <v>7.725334</v>
       </c>
       <c r="I3">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J3">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.1483113516776</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N3">
-        <v>61.1483113516776</v>
+        <v>182.628158</v>
       </c>
       <c r="O3">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P3">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q3">
-        <v>24.22384126768797</v>
+        <v>156.7626131505303</v>
       </c>
       <c r="R3">
-        <v>24.22384126768797</v>
+        <v>1410.863518354772</v>
       </c>
       <c r="S3">
-        <v>0.0002879460446014729</v>
+        <v>0.001285486563892555</v>
       </c>
       <c r="T3">
-        <v>0.0002879460446014729</v>
+        <v>0.001285486563892555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.396148981586282</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H4">
-        <v>0.396148981586282</v>
+        <v>7.725334</v>
       </c>
       <c r="I4">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J4">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.1155030568557</v>
+        <v>63.712864</v>
       </c>
       <c r="N4">
-        <v>10.1155030568557</v>
+        <v>191.138592</v>
       </c>
       <c r="O4">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P4">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q4">
-        <v>4.007246234206307</v>
+        <v>164.0677181655253</v>
       </c>
       <c r="R4">
-        <v>4.007246234206307</v>
+        <v>1476.609463489728</v>
       </c>
       <c r="S4">
-        <v>4.763367998216677E-05</v>
+        <v>0.001345389969148903</v>
       </c>
       <c r="T4">
-        <v>4.763367998216677E-05</v>
+        <v>0.001345389969148903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>366.39644442293</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H5">
-        <v>366.39644442293</v>
+        <v>7.725334</v>
       </c>
       <c r="I5">
-        <v>0.521423947882187</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J5">
-        <v>0.521423947882187</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.4575390136119</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N5">
-        <v>48.4575390136119</v>
+        <v>32.792867</v>
       </c>
       <c r="O5">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P5">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q5">
-        <v>17754.67000007282</v>
+        <v>28.14842782139756</v>
       </c>
       <c r="R5">
-        <v>17754.67000007282</v>
+        <v>253.335850392578</v>
       </c>
       <c r="S5">
-        <v>0.2110477419014787</v>
+        <v>0.0002308230580741857</v>
       </c>
       <c r="T5">
-        <v>0.2110477419014787</v>
+        <v>0.0002308230580741857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>366.39644442293</v>
+        <v>378.538676</v>
       </c>
       <c r="H6">
-        <v>366.39644442293</v>
+        <v>1135.616028</v>
       </c>
       <c r="I6">
-        <v>0.521423947882187</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J6">
-        <v>0.521423947882187</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>61.1483113516776</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N6">
-        <v>61.1483113516776</v>
+        <v>0.117908</v>
       </c>
       <c r="O6">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P6">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q6">
-        <v>22404.52386172096</v>
+        <v>14.87757940326933</v>
       </c>
       <c r="R6">
-        <v>22404.52386172096</v>
+        <v>133.898214629424</v>
       </c>
       <c r="S6">
-        <v>0.2663200256256306</v>
+        <v>0.0001219992958894016</v>
       </c>
       <c r="T6">
-        <v>0.2663200256256306</v>
+        <v>0.0001219992958894016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>366.39644442293</v>
+        <v>378.538676</v>
       </c>
       <c r="H7">
-        <v>366.39644442293</v>
+        <v>1135.616028</v>
       </c>
       <c r="I7">
-        <v>0.521423947882187</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J7">
-        <v>0.521423947882187</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.1155030568557</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N7">
-        <v>10.1155030568557</v>
+        <v>182.628158</v>
       </c>
       <c r="O7">
-        <v>0.08449205398796139</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P7">
-        <v>0.08449205398796139</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q7">
-        <v>3706.284353581208</v>
+        <v>23043.94037654627</v>
       </c>
       <c r="R7">
-        <v>3706.284353581208</v>
+        <v>207395.4633889164</v>
       </c>
       <c r="S7">
-        <v>0.04405618035507772</v>
+        <v>0.1889651820536214</v>
       </c>
       <c r="T7">
-        <v>0.04405618035507772</v>
+        <v>0.1889651820536214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>115.440029325556</v>
+        <v>378.538676</v>
       </c>
       <c r="H8">
-        <v>115.440029325556</v>
+        <v>1135.616028</v>
       </c>
       <c r="I8">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J8">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.4575390136119</v>
+        <v>63.712864</v>
       </c>
       <c r="N8">
-        <v>48.4575390136119</v>
+        <v>191.138592</v>
       </c>
       <c r="O8">
-        <v>0.4047526830301316</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P8">
-        <v>0.4047526830301316</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q8">
-        <v>5593.939724775631</v>
+        <v>24117.78318272806</v>
       </c>
       <c r="R8">
-        <v>5593.939724775631</v>
+        <v>217060.0486445526</v>
       </c>
       <c r="S8">
-        <v>0.06649452494707221</v>
+        <v>0.1977709200503071</v>
       </c>
       <c r="T8">
-        <v>0.06649452494707221</v>
+        <v>0.1977709200503071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>115.440029325556</v>
+        <v>378.538676</v>
       </c>
       <c r="H9">
-        <v>115.440029325556</v>
+        <v>1135.616028</v>
       </c>
       <c r="I9">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J9">
-        <v>0.1642843339524498</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.1483113516776</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N9">
-        <v>61.1483113516776</v>
+        <v>32.792867</v>
       </c>
       <c r="O9">
-        <v>0.510755262981907</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P9">
-        <v>0.510755262981907</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q9">
-        <v>7058.962855645891</v>
+        <v>4137.789485474697</v>
       </c>
       <c r="R9">
-        <v>7058.962855645891</v>
+        <v>37240.10536927228</v>
       </c>
       <c r="S9">
-        <v>0.08390908819169093</v>
+        <v>0.03393074841566979</v>
       </c>
       <c r="T9">
-        <v>0.08390908819169093</v>
+        <v>0.03393074841566979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>115.440029325556</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H10">
-        <v>115.440029325556</v>
+        <v>842.566546</v>
       </c>
       <c r="I10">
-        <v>0.1642843339524498</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J10">
-        <v>0.1642843339524498</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>10.1155030568557</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N10">
-        <v>10.1155030568557</v>
+        <v>0.117908</v>
       </c>
       <c r="O10">
-        <v>0.08449205398796139</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P10">
-        <v>0.08449205398796139</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q10">
-        <v>1167.733969526173</v>
+        <v>11.03837070064089</v>
       </c>
       <c r="R10">
-        <v>1167.733969526173</v>
+        <v>99.345336305768</v>
       </c>
       <c r="S10">
-        <v>0.01388072081368667</v>
+        <v>9.051697300627139E-05</v>
       </c>
       <c r="T10">
-        <v>0.01388072081368667</v>
+        <v>9.051697300627139E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>94.5737157357929</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H11">
-        <v>94.5737157357929</v>
+        <v>842.566546</v>
       </c>
       <c r="I11">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J11">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.4575390136119</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N11">
-        <v>48.4575390136119</v>
+        <v>182.628158</v>
       </c>
       <c r="O11">
-        <v>0.4047526830301316</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P11">
-        <v>0.4047526830301316</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q11">
-        <v>4582.809519929427</v>
+        <v>17097.37514315581</v>
       </c>
       <c r="R11">
-        <v>4582.809519929427</v>
+        <v>153876.3762884023</v>
       </c>
       <c r="S11">
-        <v>0.05447533526343989</v>
+        <v>0.140202090170905</v>
       </c>
       <c r="T11">
-        <v>0.05447533526343989</v>
+        <v>0.140202090170905</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>94.5737157357929</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H12">
-        <v>94.5737157357929</v>
+        <v>842.566546</v>
       </c>
       <c r="I12">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J12">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.1483113516776</v>
+        <v>63.712864</v>
       </c>
       <c r="N12">
-        <v>61.1483113516776</v>
+        <v>191.138592</v>
       </c>
       <c r="O12">
-        <v>0.510755262981907</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P12">
-        <v>0.510755262981907</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q12">
-        <v>5783.023015497315</v>
+        <v>17894.10925208258</v>
       </c>
       <c r="R12">
-        <v>5783.023015497315</v>
+        <v>161046.9832687432</v>
       </c>
       <c r="S12">
-        <v>0.06874213650718279</v>
+        <v>0.1467354782756108</v>
       </c>
       <c r="T12">
-        <v>0.06874213650718279</v>
+        <v>0.1467354782756108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>94.5737157357929</v>
+        <v>280.8555153333334</v>
       </c>
       <c r="H13">
-        <v>94.5737157357929</v>
+        <v>842.566546</v>
       </c>
       <c r="I13">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="J13">
-        <v>0.1345891887747771</v>
+        <v>0.312202891684044</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.1155030568557</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N13">
-        <v>10.1155030568557</v>
+        <v>32.792867</v>
       </c>
       <c r="O13">
-        <v>0.08449205398796139</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P13">
-        <v>0.08449205398796139</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q13">
-        <v>956.660710623615</v>
+        <v>3070.019186847488</v>
       </c>
       <c r="R13">
-        <v>956.660710623615</v>
+        <v>27630.17268162738</v>
       </c>
       <c r="S13">
-        <v>0.01137171700415439</v>
+        <v>0.0251748062645219</v>
       </c>
       <c r="T13">
-        <v>0.01137171700415439</v>
+        <v>0.0251748062645219</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>119.244640755233</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H14">
-        <v>119.244640755233</v>
+        <v>296.705342</v>
       </c>
       <c r="I14">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J14">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>48.4575390136119</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N14">
-        <v>48.4575390136119</v>
+        <v>0.117908</v>
       </c>
       <c r="O14">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P14">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q14">
-        <v>5778.301831560838</v>
+        <v>3.887103718281778</v>
       </c>
       <c r="R14">
-        <v>5778.301831560838</v>
+        <v>34.983933464536</v>
       </c>
       <c r="S14">
-        <v>0.06868601633097614</v>
+        <v>3.187507213540677E-05</v>
       </c>
       <c r="T14">
-        <v>0.06868601633097614</v>
+        <v>3.187507213540677E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>119.244640755233</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H15">
-        <v>119.244640755233</v>
+        <v>296.705342</v>
       </c>
       <c r="I15">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J15">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>61.1483113516776</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N15">
-        <v>61.1483113516776</v>
+        <v>182.628158</v>
       </c>
       <c r="O15">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P15">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q15">
-        <v>7291.608419919931</v>
+        <v>6020.750008691117</v>
       </c>
       <c r="R15">
-        <v>7291.608419919931</v>
+        <v>54186.75007822004</v>
       </c>
       <c r="S15">
-        <v>0.08667451954035751</v>
+        <v>0.04937142272115942</v>
       </c>
       <c r="T15">
-        <v>0.08667451954035751</v>
+        <v>0.04937142272115942</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>119.244640755233</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H16">
-        <v>119.244640755233</v>
+        <v>296.705342</v>
       </c>
       <c r="I16">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J16">
-        <v>0.169698730140012</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.1155030568557</v>
+        <v>63.712864</v>
       </c>
       <c r="N16">
-        <v>10.1155030568557</v>
+        <v>191.138592</v>
       </c>
       <c r="O16">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P16">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q16">
-        <v>1206.219528073219</v>
+        <v>6301.315700973164</v>
       </c>
       <c r="R16">
-        <v>1206.219528073219</v>
+        <v>56711.84130875848</v>
       </c>
       <c r="S16">
-        <v>0.01433819426867839</v>
+        <v>0.05167212070309125</v>
       </c>
       <c r="T16">
-        <v>0.01433819426867839</v>
+        <v>0.05167212070309125</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.63336412577723</v>
+        <v>98.90178066666668</v>
       </c>
       <c r="H17">
-        <v>6.63336412577723</v>
+        <v>296.705342</v>
       </c>
       <c r="I17">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="J17">
-        <v>0.00944003404741112</v>
+        <v>0.1099405930490186</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.4575390136119</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N17">
-        <v>48.4575390136119</v>
+        <v>32.792867</v>
       </c>
       <c r="O17">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P17">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q17">
-        <v>321.4365009163437</v>
+        <v>1081.090979821724</v>
       </c>
       <c r="R17">
-        <v>321.4365009163437</v>
+        <v>9729.818818395515</v>
       </c>
       <c r="S17">
-        <v>0.003820879108585444</v>
+        <v>0.008865174552632563</v>
       </c>
       <c r="T17">
-        <v>0.003820879108585444</v>
+        <v>0.008865174552632561</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.63336412577723</v>
+        <v>132.0794193333333</v>
       </c>
       <c r="H18">
-        <v>6.63336412577723</v>
+        <v>396.238258</v>
       </c>
       <c r="I18">
-        <v>0.00944003404741112</v>
+        <v>0.1468213169995101</v>
       </c>
       <c r="J18">
-        <v>0.00944003404741112</v>
+        <v>0.1468213169995101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>61.1483113516776</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N18">
-        <v>61.1483113516776</v>
+        <v>0.117908</v>
       </c>
       <c r="O18">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P18">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q18">
-        <v>405.6190148720747</v>
+        <v>5.191073391584889</v>
       </c>
       <c r="R18">
-        <v>405.6190148720747</v>
+        <v>46.719660524264</v>
       </c>
       <c r="S18">
-        <v>0.004821547072443622</v>
+        <v>4.256789908608358E-05</v>
       </c>
       <c r="T18">
-        <v>0.004821547072443622</v>
+        <v>4.256789908608359E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H19">
+        <v>396.238258</v>
+      </c>
+      <c r="I19">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J19">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N19">
+        <v>182.628158</v>
+      </c>
+      <c r="O19">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P19">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q19">
+        <v>8040.473687518753</v>
+      </c>
+      <c r="R19">
+        <v>72364.26318766878</v>
+      </c>
+      <c r="S19">
+        <v>0.06593358381128785</v>
+      </c>
+      <c r="T19">
+        <v>0.06593358381128786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H20">
+        <v>396.238258</v>
+      </c>
+      <c r="I20">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J20">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>63.712864</v>
+      </c>
+      <c r="N20">
+        <v>191.138592</v>
+      </c>
+      <c r="O20">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P20">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q20">
+        <v>8415.158081183637</v>
+      </c>
+      <c r="R20">
+        <v>75736.42273065275</v>
+      </c>
+      <c r="S20">
+        <v>0.06900607503911611</v>
+      </c>
+      <c r="T20">
+        <v>0.06900607503911613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H21">
+        <v>396.238258</v>
+      </c>
+      <c r="I21">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J21">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N21">
+        <v>32.792867</v>
+      </c>
+      <c r="O21">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P21">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q21">
+        <v>1443.754277211743</v>
+      </c>
+      <c r="R21">
+        <v>12993.78849490569</v>
+      </c>
+      <c r="S21">
+        <v>0.01183909025002002</v>
+      </c>
+      <c r="T21">
+        <v>0.01183909025002002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H22">
+        <v>19.927294</v>
+      </c>
+      <c r="I22">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J22">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.117908</v>
+      </c>
+      <c r="O22">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P22">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q22">
+        <v>0.2610652645502222</v>
+      </c>
+      <c r="R22">
+        <v>2.349587380952</v>
+      </c>
+      <c r="S22">
+        <v>2.140790352583063E-06</v>
+      </c>
+      <c r="T22">
+        <v>2.140790352583063E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H23">
+        <v>19.927294</v>
+      </c>
+      <c r="I23">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J23">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N23">
+        <v>182.628158</v>
+      </c>
+      <c r="O23">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P23">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q23">
+        <v>404.3649996827169</v>
+      </c>
+      <c r="R23">
+        <v>3639.284997144452</v>
+      </c>
+      <c r="S23">
+        <v>0.003315878470980895</v>
+      </c>
+      <c r="T23">
+        <v>0.003315878470980895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H24">
+        <v>19.927294</v>
+      </c>
+      <c r="I24">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J24">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.712864</v>
+      </c>
+      <c r="N24">
+        <v>191.138592</v>
+      </c>
+      <c r="O24">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P24">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q24">
+        <v>423.2083241700054</v>
+      </c>
+      <c r="R24">
+        <v>3808.874917530048</v>
+      </c>
+      <c r="S24">
+        <v>0.003470397714827749</v>
+      </c>
+      <c r="T24">
+        <v>0.00347039771482775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>6.63336412577723</v>
-      </c>
-      <c r="H19">
-        <v>6.63336412577723</v>
-      </c>
-      <c r="I19">
-        <v>0.00944003404741112</v>
-      </c>
-      <c r="J19">
-        <v>0.00944003404741112</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>10.1155030568557</v>
-      </c>
-      <c r="N19">
-        <v>10.1155030568557</v>
-      </c>
-      <c r="O19">
-        <v>0.08449205398796139</v>
-      </c>
-      <c r="P19">
-        <v>0.08449205398796139</v>
-      </c>
-      <c r="Q19">
-        <v>67.0998150915365</v>
-      </c>
-      <c r="R19">
-        <v>67.0998150915365</v>
-      </c>
-      <c r="S19">
-        <v>0.0007976078663820541</v>
-      </c>
-      <c r="T19">
-        <v>0.0007976078663820541</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H25">
+        <v>19.927294</v>
+      </c>
+      <c r="I25">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J25">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N25">
+        <v>32.792867</v>
+      </c>
+      <c r="O25">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P25">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q25">
+        <v>72.60812242354423</v>
+      </c>
+      <c r="R25">
+        <v>653.473101811898</v>
+      </c>
+      <c r="S25">
+        <v>0.0005954019515820768</v>
+      </c>
+      <c r="T25">
+        <v>0.0005954019515820768</v>
       </c>
     </row>
   </sheetData>
